--- a/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.728669638484409</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6954551332532117</v>
+        <v>0.6954551332532118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7116411762549841</v>
+        <v>0.711641176254984</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6930586767448363</v>
+        <v>0.691323645273799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6637011572884959</v>
+        <v>0.6657178005491575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6902071121919127</v>
+        <v>0.687957651465166</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7624627062931681</v>
+        <v>0.7652933987361867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7224563615952432</v>
+        <v>0.7255892436719543</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.73498038037792</v>
+        <v>0.7333992909766855</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.7644344964059712</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7467521522517758</v>
+        <v>0.7467521522517759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7554739431301474</v>
+        <v>0.7554739431301476</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7330305109977054</v>
+        <v>0.7338279364585378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7224854910503339</v>
+        <v>0.7215445430663497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7356139606927627</v>
+        <v>0.7360066657011963</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7944774634686896</v>
+        <v>0.7913839376972988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7690720708375993</v>
+        <v>0.7687135780137511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7749839862491947</v>
+        <v>0.7745619127261765</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6284418789872954</v>
+        <v>0.6284418789872953</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6121648199885061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6202978184499499</v>
+        <v>0.6202978184499498</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5850176623432167</v>
+        <v>0.5846315354247047</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5820060695671034</v>
+        <v>0.5790960931733593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5935296749276672</v>
+        <v>0.5915713750983007</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6679647344859577</v>
+        <v>0.665048191289159</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6455072726818396</v>
+        <v>0.6452186913706236</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6452862582321391</v>
+        <v>0.6450280454597517</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7021149311461444</v>
+        <v>0.7021149311461443</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6607072056503358</v>
+        <v>0.6607072056503357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6803751772129618</v>
+        <v>0.6803751772129619</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6669771491628651</v>
+        <v>0.6701387026965114</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6339396884661382</v>
+        <v>0.6333047848284924</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6581379020620335</v>
+        <v>0.6602678362128017</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7331433142390227</v>
+        <v>0.7331901913412009</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6881889290242671</v>
+        <v>0.6875948123299569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7000745330774462</v>
+        <v>0.7002998943268156</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.70851186009955</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6815887048239775</v>
+        <v>0.6815887048239776</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6947354248523753</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6911009577488303</v>
+        <v>0.6916231463110815</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6675550251006589</v>
+        <v>0.6660591081245371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.683884451604032</v>
+        <v>0.6838369884916855</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.726895837210774</v>
+        <v>0.7234953790210171</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6956123541035906</v>
+        <v>0.6944192697372971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7057280274815497</v>
+        <v>0.7063980821223164</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>417060</v>
+        <v>416016</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>420180</v>
+        <v>421457</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>852304</v>
+        <v>849527</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>458825</v>
+        <v>460528</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>457377</v>
+        <v>459360</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>907593</v>
+        <v>905640</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>701303</v>
+        <v>702066</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>710136</v>
+        <v>709211</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1426814</v>
+        <v>1427576</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>760090</v>
+        <v>757130</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>755926</v>
+        <v>755574</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1503178</v>
+        <v>1502359</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>437280</v>
+        <v>436991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>435620</v>
+        <v>433442</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>887888</v>
+        <v>884958</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>499280</v>
+        <v>497100</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>483150</v>
+        <v>482934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>965313</v>
+        <v>964926</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>602961</v>
+        <v>605819</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>633464</v>
+        <v>632829</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1252614</v>
+        <v>1256668</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>662777</v>
+        <v>662819</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>687672</v>
+        <v>687078</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1332431</v>
+        <v>1332860</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2218413</v>
+        <v>2220089</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2245470</v>
+        <v>2240438</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4495646</v>
+        <v>4495334</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2333313</v>
+        <v>2322398</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2339847</v>
+        <v>2335834</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4639239</v>
+        <v>4643643</v>
       </c>
     </row>
     <row r="24">
